--- a/cert.xlsx
+++ b/cert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sorby\Desktop\Diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E57754-D60B-4291-9912-E4AAA21137A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C024E6B3-D143-4A05-9FCD-5ED6361A5DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
